--- a/data/trans_camb/P16A98-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A98-Provincia-trans_camb.xlsx
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,64</t>
+          <t>0,0; 5,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,58</t>
+          <t>-2,03; 3,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 0,0</t>
+          <t>-4,29; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,23</t>
+          <t>-0,41; 3,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,0</t>
+          <t>-2,14; 0,0</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,39</t>
+          <t>1,21; 5,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,24</t>
+          <t>0,0; 2,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 10,89</t>
+          <t>3,3; 12,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,65</t>
+          <t>2,52; 6,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,58</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 6,49</t>
+          <t>0,01; 5,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,02</t>
+          <t>-0,82; 2,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,0</t>
+          <t>-2,2; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 14,76</t>
+          <t>3,07; 15,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,0</t>
+          <t>-3,4; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,0</t>
+          <t>-3,76; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 7,48</t>
+          <t>1,82; 7,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,47</t>
+          <t>-1,12; 1,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 0,0</t>
+          <t>-2,27; 0,0</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>71,63; —</t>
+          <t>49,99; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,88</t>
+          <t>0,68; 3,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,82</t>
+          <t>0,51; 4,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 12,36</t>
+          <t>3,35; 12,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 12,14</t>
+          <t>1,61; 12,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 0,0</t>
+          <t>-3,43; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,77</t>
+          <t>1,98; 5,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,79</t>
+          <t>1,25; 6,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,0</t>
+          <t>-1,45; 0,0</t>
         </is>
       </c>
     </row>
@@ -1549,27 +1549,27 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,25</t>
+          <t>-0,66; 9,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 1,65</t>
+          <t>-4,23; 1,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 0,0</t>
+          <t>-5,31; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,28; 20,86</t>
+          <t>2,26; 20,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,73</t>
+          <t>0,0; 6,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,9; 10,17</t>
+          <t>1,69; 10,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,06</t>
+          <t>-1,9; 2,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 0,0</t>
+          <t>-3,44; 0,0</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-33,32; —</t>
+          <t>10,26; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,31</t>
+          <t>0,86; 7,32</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>0,0; 4,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 10,91</t>
+          <t>-1,18; 11,01</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 5,82</t>
+          <t>-2,37; 5,06</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,0</t>
+          <t>-6,74; 0,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,8; 6,51</t>
+          <t>0,82; 6,88</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,69</t>
+          <t>-0,44; 3,5</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 0,0</t>
+          <t>-1,81; 0,0</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,78</t>
+          <t>0,93; 4,78</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4,66; 12,05</t>
+          <t>4,76; 12,06</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,99</t>
+          <t>0,27; 2,67</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,98</t>
+          <t>2,91; 6,78</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,23</t>
+          <t>0,12; 1,35</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,61</t>
+          <t>0,45; 2,57</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -2212,12 +2212,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,0</t>
+          <t>0,65; 4,2</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,63</t>
+          <t>0,76; 2,56</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,66</t>
+          <t>0,17; 1,67</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,86</t>
+          <t>1,45; 2,89</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,14</t>
+          <t>0,25; 1,09</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,38; -0,04</t>
+          <t>-0,41; -0,04</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,94</t>
+          <t>4,04; 7,07</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,94</t>
+          <t>0,27; 1,78</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,75; -0,08</t>
+          <t>-0,72; -0,08</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,09</t>
+          <t>2,67; 4,15</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,23</t>
+          <t>0,39; 1,19</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,45; -0,09</t>
+          <t>-0,42; -0,09</t>
         </is>
       </c>
     </row>
@@ -2519,12 +2519,12 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>418,65; 5687,41</t>
+          <t>379,48; 5390,76</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>29,2; 2078,97</t>
+          <t>41,17; 2252,91</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>601,33; 7517,05</t>
+          <t>612,08; 7731,54</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>13,89; 1678,76</t>
+          <t>6,13; 1557,68</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>697,19; 4123,69</t>
+          <t>739,6; 3784,01</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>90,15; 1243,53</t>
+          <t>91,88; 1041,09</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">

--- a/data/trans_camb/P16A98-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A98-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,32</t>
+          <t>0,0; 5,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,65</t>
+          <t>-1,99; 4,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 0,0</t>
+          <t>-5,07; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,21</t>
+          <t>-0,39; 3,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,0</t>
+          <t>-1,6; 0,0</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,38</t>
+          <t>1,19; 5,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,38</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 12,29</t>
+          <t>2,84; 11,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,59</t>
+          <t>2,34; 6,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,34</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 5,78</t>
+          <t>0,2; 6,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,92</t>
+          <t>-0,83; 2,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,0</t>
+          <t>-2,23; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,07; 15,64</t>
+          <t>2,43; 14,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,0</t>
+          <t>-3,85; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,0</t>
+          <t>-3,83; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,12</t>
+          <t>1,68; 7,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,25</t>
+          <t>-1,07; 1,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,0</t>
+          <t>-1,93; 0,0</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,99; —</t>
+          <t>44,07; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,77</t>
+          <t>0,65; 4,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,51</t>
+          <t>0,52; 4,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,27 +1348,27 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 12,41</t>
+          <t>3,34; 12,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 12,9</t>
+          <t>1,3; 12,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 0,0</t>
+          <t>-3,1; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,98; 5,81</t>
+          <t>1,99; 5,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 6,59</t>
+          <t>1,14; 7,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1549,27 +1549,27 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 9,81</t>
+          <t>-0,89; 9,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,63</t>
+          <t>-4,26; 1,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 0,0</t>
+          <t>-5,39; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,26; 20,03</t>
+          <t>2,27; 20,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,46</t>
+          <t>0,0; 7,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,69; 10,49</t>
+          <t>1,79; 10,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,09</t>
+          <t>-1,89; 2,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,0</t>
+          <t>-3,27; 0,0</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>10,26; —</t>
+          <t>36,75; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,32</t>
+          <t>0,86; 7,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,84</t>
+          <t>0,0; 4,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 11,01</t>
+          <t>-0,68; 11,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 5,06</t>
+          <t>-2,35; 5,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 0,0</t>
+          <t>-6,63; 0,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,88</t>
+          <t>0,78; 7,13</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,5</t>
+          <t>-0,07; 3,69</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,0</t>
+          <t>-2,23; 0,0</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,78</t>
+          <t>0,91; 4,91</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4,76; 12,06</t>
+          <t>4,7; 12,34</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,67</t>
+          <t>0,27; 3,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,78</t>
+          <t>3,03; 6,86</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,35</t>
+          <t>0,0; 1,18</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,57</t>
+          <t>0,46; 2,54</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,15</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -2212,12 +2212,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,2</t>
+          <t>0,66; 4,12</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,56</t>
+          <t>0,77; 2,64</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,67</t>
+          <t>0,16; 1,66</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,89</t>
+          <t>1,43; 2,94</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,09</t>
+          <t>0,24; 1,12</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,41; -0,04</t>
+          <t>-0,37; -0,04</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,07</t>
+          <t>3,97; 7,0</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,78</t>
+          <t>0,32; 1,84</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,72; -0,08</t>
+          <t>-0,74; -0,08</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,15</t>
+          <t>2,68; 4,17</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,19</t>
+          <t>0,39; 1,2</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>379,48; 5390,76</t>
+          <t>418,73; 5835,94</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>41,17; 2252,91</t>
+          <t>41,36; 2267,69</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>612,08; 7731,54</t>
+          <t>650,29; 7106,9</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>6,13; 1557,68</t>
+          <t>34,02; 1605,37</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>739,6; 3784,01</t>
+          <t>730,43; 4045,59</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>91,88; 1041,09</t>
+          <t>77,51; 1083,09</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
